--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll4</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll4</t>
-  </si>
-  <si>
-    <t>Notch1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H2">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I2">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J2">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>2173.566531398405</v>
+        <v>771.9956569437754</v>
       </c>
       <c r="R2">
-        <v>19562.09878258564</v>
+        <v>6947.960912493979</v>
       </c>
       <c r="S2">
-        <v>0.4781009801195384</v>
+        <v>0.3729965821901113</v>
       </c>
       <c r="T2">
-        <v>0.5144286946680018</v>
+        <v>0.4060410830909372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H3">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I3">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J3">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>355.028366999024</v>
+        <v>185.358972429908</v>
       </c>
       <c r="R3">
-        <v>3195.255302991216</v>
+        <v>1668.230751869172</v>
       </c>
       <c r="S3">
-        <v>0.07809257631661613</v>
+        <v>0.08955783957170901</v>
       </c>
       <c r="T3">
-        <v>0.08402631194726642</v>
+        <v>0.09749194473971561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H4">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I4">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J4">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>470.64457838362</v>
+        <v>304.362375788626</v>
       </c>
       <c r="R4">
-        <v>4235.801205452581</v>
+        <v>2739.261382097634</v>
       </c>
       <c r="S4">
-        <v>0.1035236929547253</v>
+        <v>0.1470553945417959</v>
       </c>
       <c r="T4">
-        <v>0.1113897700452214</v>
+        <v>0.1600833212023434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H5">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I5">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J5">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>901.3662741638188</v>
+        <v>477.224045398548</v>
       </c>
       <c r="R5">
-        <v>5408.197644982914</v>
+        <v>2863.344272391288</v>
       </c>
       <c r="S5">
-        <v>0.1982658882988792</v>
+        <v>0.2305750508717705</v>
       </c>
       <c r="T5">
-        <v>0.1422205299102058</v>
+        <v>0.1673347654465518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.80310266666667</v>
+        <v>20.25895366666667</v>
       </c>
       <c r="H6">
-        <v>116.409308</v>
+        <v>60.776861</v>
       </c>
       <c r="I6">
-        <v>0.9789895780174939</v>
+        <v>0.9735054450004206</v>
       </c>
       <c r="J6">
-        <v>0.9822662217176463</v>
+        <v>0.9760828245357948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>550.1255168191907</v>
+        <v>275.9352551110034</v>
       </c>
       <c r="R6">
-        <v>4951.129651372717</v>
+        <v>2483.41729599903</v>
       </c>
       <c r="S6">
-        <v>0.1210064403277349</v>
+        <v>0.1333205778250338</v>
       </c>
       <c r="T6">
-        <v>0.130200915146951</v>
+        <v>0.1451317100562469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.437953</v>
       </c>
       <c r="I7">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J7">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>8.177352820665554</v>
+        <v>5.562936426504444</v>
       </c>
       <c r="R7">
-        <v>73.59617538598999</v>
+        <v>50.06642783853999</v>
       </c>
       <c r="S7">
-        <v>0.001798702888486307</v>
+        <v>0.002687782315047594</v>
       </c>
       <c r="T7">
-        <v>0.001935374361266157</v>
+        <v>0.002925898237207828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.437953</v>
       </c>
       <c r="I8">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J8">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>1.335681322084</v>
@@ -948,10 +948,10 @@
         <v>12.021131898756</v>
       </c>
       <c r="S8">
-        <v>0.0002937984828119671</v>
+        <v>0.0006453463352434189</v>
       </c>
       <c r="T8">
-        <v>0.0003161222760317514</v>
+        <v>0.0007025188364794403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.437953</v>
       </c>
       <c r="I9">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J9">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>1.770650548295</v>
+        <v>2.193209938298</v>
       </c>
       <c r="R9">
-        <v>15.935854934655</v>
+        <v>19.738889444682</v>
       </c>
       <c r="S9">
-        <v>0.0003894749713708528</v>
+        <v>0.001059668929031447</v>
       </c>
       <c r="T9">
-        <v>0.0004190685847957693</v>
+        <v>0.001153547083824054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.437953</v>
       </c>
       <c r="I10">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J10">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>3.391103947365333</v>
+        <v>3.438836736804</v>
       </c>
       <c r="R10">
-        <v>20.346623684192</v>
+        <v>20.633020420824</v>
       </c>
       <c r="S10">
-        <v>0.0007459123507388175</v>
+        <v>0.001661504618582465</v>
       </c>
       <c r="T10">
-        <v>0.0005350595137612565</v>
+        <v>0.001205800387282484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.437953</v>
       </c>
       <c r="I11">
-        <v>0.003683136941776988</v>
+        <v>0.007014999181255333</v>
       </c>
       <c r="J11">
-        <v>0.003695464271636322</v>
+        <v>0.007033571563591034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>2.069672302042334</v>
+        <v>1.988366473576667</v>
       </c>
       <c r="R11">
-        <v>18.627050718381</v>
+        <v>17.89529826219</v>
       </c>
       <c r="S11">
-        <v>0.0004552482483690433</v>
+        <v>0.0009606969833504072</v>
       </c>
       <c r="T11">
-        <v>0.0004898395357813878</v>
+        <v>0.001045807018797228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H12">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I12">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J12">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>13.26705023267</v>
+        <v>9.165527554368889</v>
       </c>
       <c r="R12">
-        <v>119.40345209403</v>
+        <v>82.48974798931999</v>
       </c>
       <c r="S12">
-        <v>0.002918240425543264</v>
+        <v>0.004428406327158743</v>
       </c>
       <c r="T12">
-        <v>0.003139978111871402</v>
+        <v>0.004820727554360861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H13">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I13">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J13">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>2.167027836947999</v>
+        <v>2.200676589272</v>
       </c>
       <c r="R13">
-        <v>19.503250532532</v>
+        <v>19.806089303448</v>
       </c>
       <c r="S13">
-        <v>0.0004766627190034042</v>
+        <v>0.001063276507997285</v>
       </c>
       <c r="T13">
-        <v>0.0005128811496527632</v>
+        <v>0.001157474265306587</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H14">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I14">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J14">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>2.872727921114999</v>
+        <v>3.613545901084001</v>
       </c>
       <c r="R14">
-        <v>25.85455129003499</v>
+        <v>32.521913109756</v>
       </c>
       <c r="S14">
-        <v>0.000631889576353666</v>
+        <v>0.001745916908428387</v>
       </c>
       <c r="T14">
-        <v>0.0006799026637775529</v>
+        <v>0.001900591121566146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H15">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I15">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J15">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>5.501773911503999</v>
+        <v>5.665848115032001</v>
       </c>
       <c r="R15">
-        <v>33.010643469024</v>
+        <v>33.99508869019201</v>
       </c>
       <c r="S15">
-        <v>0.001210178506840483</v>
+        <v>0.002737505014576961</v>
       </c>
       <c r="T15">
-        <v>0.0008680879500024817</v>
+        <v>0.001986683978995398</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2368469999999999</v>
+        <v>0.2405246666666667</v>
       </c>
       <c r="H16">
-        <v>0.7105409999999999</v>
+        <v>0.721574</v>
       </c>
       <c r="I16">
-        <v>0.00597557227772652</v>
+        <v>0.0115579548929112</v>
       </c>
       <c r="J16">
-        <v>0.005995572308062152</v>
+        <v>0.0115885548618839</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>3.357864947072999</v>
+        <v>3.276044575113334</v>
       </c>
       <c r="R16">
-        <v>30.220784523657</v>
+        <v>29.48440117602001</v>
       </c>
       <c r="S16">
-        <v>0.0007386010499857026</v>
+        <v>0.001582850134749818</v>
       </c>
       <c r="T16">
-        <v>0.0007947224327579512</v>
+        <v>0.001723077941654906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H17">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I17">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J17">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>22.21857152038667</v>
+        <v>6.281877047393333</v>
       </c>
       <c r="R17">
-        <v>133.31142912232</v>
+        <v>37.69126228435999</v>
       </c>
       <c r="S17">
-        <v>0.004887230580385594</v>
+        <v>0.003035144883706089</v>
       </c>
       <c r="T17">
-        <v>0.003505719157740414</v>
+        <v>0.002202689559390838</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H18">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I18">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J18">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>3.629161127568</v>
+        <v>1.508301586884</v>
       </c>
       <c r="R18">
-        <v>21.774966765408</v>
+        <v>9.049809521304001</v>
       </c>
       <c r="S18">
-        <v>0.0007982757679773792</v>
+        <v>0.00072874935468792</v>
       </c>
       <c r="T18">
-        <v>0.0005726209571919647</v>
+        <v>0.0005288737956468945</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H19">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I19">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J19">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>4.81100995734</v>
+        <v>2.476655153898</v>
       </c>
       <c r="R19">
-        <v>28.86605974404</v>
+        <v>14.859930923388</v>
       </c>
       <c r="S19">
-        <v>0.001058237023225265</v>
+        <v>0.001196618011200492</v>
       </c>
       <c r="T19">
-        <v>0.000759096945546264</v>
+        <v>0.0008684191697076136</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H20">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I20">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J20">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>9.213921331264002</v>
+        <v>3.883263785604</v>
       </c>
       <c r="R20">
-        <v>36.85568532505601</v>
+        <v>15.533055142416</v>
       </c>
       <c r="S20">
-        <v>0.002026708065102329</v>
+        <v>0.001876233508239044</v>
       </c>
       <c r="T20">
-        <v>0.0009692018378795438</v>
+        <v>0.0009077567667941757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.396652</v>
+        <v>0.164851</v>
       </c>
       <c r="H21">
-        <v>0.793304</v>
+        <v>0.329702</v>
       </c>
       <c r="I21">
-        <v>0.01000740011528447</v>
+        <v>0.007921600925412929</v>
       </c>
       <c r="J21">
-        <v>0.006693929687765996</v>
+        <v>0.005295049038730392</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>5.623477802068001</v>
+        <v>2.24533820891</v>
       </c>
       <c r="R21">
-        <v>33.740866812408</v>
+        <v>13.47202925346</v>
       </c>
       <c r="S21">
-        <v>0.001236948678593898</v>
+        <v>0.001084855167579384</v>
       </c>
       <c r="T21">
-        <v>0.0008872907894078089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.053283</v>
-      </c>
-      <c r="H22">
-        <v>0.159849</v>
-      </c>
-      <c r="I22">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J22">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>56.01527666666667</v>
-      </c>
-      <c r="N22">
-        <v>168.04583</v>
-      </c>
-      <c r="O22">
-        <v>0.4883616647765734</v>
-      </c>
-      <c r="P22">
-        <v>0.5237161609491596</v>
-      </c>
-      <c r="Q22">
-        <v>2.98466198663</v>
-      </c>
-      <c r="R22">
-        <v>26.86195787967</v>
-      </c>
-      <c r="S22">
-        <v>0.0006565107626198422</v>
-      </c>
-      <c r="T22">
-        <v>0.0007063946502799021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.053283</v>
-      </c>
-      <c r="H23">
-        <v>0.159849</v>
-      </c>
-      <c r="I23">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J23">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>9.149483999999999</v>
-      </c>
-      <c r="N23">
-        <v>27.448452</v>
-      </c>
-      <c r="O23">
-        <v>0.07976854715323708</v>
-      </c>
-      <c r="P23">
-        <v>0.08554331818550501</v>
-      </c>
-      <c r="Q23">
-        <v>0.487511955972</v>
-      </c>
-      <c r="R23">
-        <v>4.387607603748</v>
-      </c>
-      <c r="S23">
-        <v>0.0001072338668281988</v>
-      </c>
-      <c r="T23">
-        <v>0.0001153818553621038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.053283</v>
-      </c>
-      <c r="H24">
-        <v>0.159849</v>
-      </c>
-      <c r="I24">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J24">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>12.129045</v>
-      </c>
-      <c r="N24">
-        <v>36.387135</v>
-      </c>
-      <c r="O24">
-        <v>0.1057454494708373</v>
-      </c>
-      <c r="P24">
-        <v>0.1134007945935868</v>
-      </c>
-      <c r="Q24">
-        <v>0.6462719047350001</v>
-      </c>
-      <c r="R24">
-        <v>5.816447142615001</v>
-      </c>
-      <c r="S24">
-        <v>0.0001421549451622879</v>
-      </c>
-      <c r="T24">
-        <v>0.0001529563542458185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.053283</v>
-      </c>
-      <c r="H25">
-        <v>0.159849</v>
-      </c>
-      <c r="I25">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J25">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>23.229232</v>
-      </c>
-      <c r="N25">
-        <v>46.45846400000001</v>
-      </c>
-      <c r="O25">
-        <v>0.2025209386808572</v>
-      </c>
-      <c r="P25">
-        <v>0.1447881712368271</v>
-      </c>
-      <c r="Q25">
-        <v>1.237723168656</v>
-      </c>
-      <c r="R25">
-        <v>7.426339011936002</v>
-      </c>
-      <c r="S25">
-        <v>0.0002722514592964296</v>
-      </c>
-      <c r="T25">
-        <v>0.0001952920249780755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.053283</v>
-      </c>
-      <c r="H26">
-        <v>0.159849</v>
-      </c>
-      <c r="I26">
-        <v>0.001344312647718157</v>
-      </c>
-      <c r="J26">
-        <v>0.001348812014889257</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>14.177359</v>
-      </c>
-      <c r="N26">
-        <v>42.532077</v>
-      </c>
-      <c r="O26">
-        <v>0.1236033999184949</v>
-      </c>
-      <c r="P26">
-        <v>0.1325515550349214</v>
-      </c>
-      <c r="Q26">
-        <v>0.7554122195970001</v>
-      </c>
-      <c r="R26">
-        <v>6.798709976373001</v>
-      </c>
-      <c r="S26">
-        <v>0.0001661616138113981</v>
-      </c>
-      <c r="T26">
-        <v>0.0001787871300233566</v>
+        <v>0.0007873097471908712</v>
       </c>
     </row>
   </sheetData>
